--- a/Code/Results/Cases/Case_4_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_181/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.489990661627758</v>
+        <v>1.30894078192739</v>
       </c>
       <c r="C2">
-        <v>0.3304077405393855</v>
+        <v>0.142381227458003</v>
       </c>
       <c r="D2">
-        <v>0.2697327071786191</v>
+        <v>0.4987193280759641</v>
       </c>
       <c r="E2">
-        <v>0.06174802757177567</v>
+        <v>0.1610303018711168</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.487172929664581</v>
+        <v>0.8237303887048171</v>
       </c>
       <c r="H2">
-        <v>0.3694642218351589</v>
+        <v>0.8931027468405262</v>
       </c>
       <c r="I2">
-        <v>0.3307226083316266</v>
+        <v>0.8318112243451985</v>
       </c>
       <c r="J2">
-        <v>0.02484483667062243</v>
+        <v>0.06234302277106618</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.371726905528746</v>
+        <v>0.4475299938882245</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8233288417902926</v>
+        <v>1.315702795095667</v>
       </c>
       <c r="O2">
-        <v>1.754817650511256</v>
+        <v>3.45520901001251</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.169189418884173</v>
+        <v>1.21536432012158</v>
       </c>
       <c r="C3">
-        <v>0.2960135077545232</v>
+        <v>0.1310391777224424</v>
       </c>
       <c r="D3">
-        <v>0.2533381139108997</v>
+        <v>0.4974918089285723</v>
       </c>
       <c r="E3">
-        <v>0.06109780218372229</v>
+        <v>0.1618009621198855</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4597575262891098</v>
+        <v>0.8240526790278437</v>
       </c>
       <c r="H3">
-        <v>0.362800397801962</v>
+        <v>0.8975604967407804</v>
       </c>
       <c r="I3">
-        <v>0.3322819078258661</v>
+        <v>0.8391401848351521</v>
       </c>
       <c r="J3">
-        <v>0.02519769224163859</v>
+        <v>0.0625834658560569</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3339364164886405</v>
+        <v>0.4392220721310593</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8365090595351745</v>
+        <v>1.323399950736459</v>
       </c>
       <c r="O3">
-        <v>1.682344467133788</v>
+        <v>3.46491372699569</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.972528043906323</v>
+        <v>1.158110474741818</v>
       </c>
       <c r="C4">
-        <v>0.2748485040262096</v>
+        <v>0.1240271722318056</v>
       </c>
       <c r="D4">
-        <v>0.2436068156246733</v>
+        <v>0.4969543038967146</v>
       </c>
       <c r="E4">
-        <v>0.06078051621528147</v>
+        <v>0.1623320022799071</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4439599382384927</v>
+        <v>0.8247716671149874</v>
       </c>
       <c r="H4">
-        <v>0.3593447442828221</v>
+        <v>0.9006908013210904</v>
       </c>
       <c r="I4">
-        <v>0.3340051272155478</v>
+        <v>0.8440747278029868</v>
       </c>
       <c r="J4">
-        <v>0.02542540543778848</v>
+        <v>0.06274004911365427</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3110016376806328</v>
+        <v>0.4342931431209962</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.845547984959623</v>
+        <v>1.328600094259578</v>
       </c>
       <c r="O4">
-        <v>1.641361151340078</v>
+        <v>3.472789165687686</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.89244381968075</v>
+        <v>1.134831784498516</v>
       </c>
       <c r="C5">
-        <v>0.2662100740383124</v>
+        <v>0.1211578432973681</v>
       </c>
       <c r="D5">
-        <v>0.2397215192635969</v>
+        <v>0.4967897377116941</v>
       </c>
       <c r="E5">
-        <v>0.06067121173866674</v>
+        <v>0.1625629751952449</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.437768293954008</v>
+        <v>0.8251956460268701</v>
       </c>
       <c r="H5">
-        <v>0.3580899763755099</v>
+        <v>0.9020653813259827</v>
       </c>
       <c r="I5">
-        <v>0.3348921536090579</v>
+        <v>0.8461948428458257</v>
       </c>
       <c r="J5">
-        <v>0.02552097911711648</v>
+        <v>0.06280611444944029</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3017182161381555</v>
+        <v>0.4323280613176337</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8494627661756411</v>
+        <v>1.330838582953469</v>
       </c>
       <c r="O5">
-        <v>1.625500005363818</v>
+        <v>3.476480485872372</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.879148726388536</v>
+        <v>1.130969612732258</v>
       </c>
       <c r="C6">
-        <v>0.2647748040561169</v>
+        <v>0.1206806810724288</v>
       </c>
       <c r="D6">
-        <v>0.2390811054995368</v>
+        <v>0.4967657047159406</v>
       </c>
       <c r="E6">
-        <v>0.06065425178514872</v>
+        <v>0.1626022087095471</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4367546256334975</v>
+        <v>0.8252739571566678</v>
       </c>
       <c r="H6">
-        <v>0.3578907068406778</v>
+        <v>0.9022996081710062</v>
       </c>
       <c r="I6">
-        <v>0.3350503846371957</v>
+        <v>0.8465534841728548</v>
       </c>
       <c r="J6">
-        <v>0.02553701682526643</v>
+        <v>0.0628172209977933</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3001803591811978</v>
+        <v>0.4320043940764009</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8501265990883127</v>
+        <v>1.331217498469158</v>
       </c>
       <c r="O6">
-        <v>1.622915750718931</v>
+        <v>3.477122540645951</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.971447797259088</v>
+        <v>1.157796314348502</v>
       </c>
       <c r="C7">
-        <v>0.2747320600996801</v>
+        <v>0.1239885233258207</v>
       </c>
       <c r="D7">
-        <v>0.243554097184898</v>
+        <v>0.4969518638039574</v>
       </c>
       <c r="E7">
-        <v>0.06077896194381438</v>
+        <v>0.1623350582389982</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4438754580534976</v>
+        <v>0.8247768547543615</v>
       </c>
       <c r="H7">
-        <v>0.3593272091123794</v>
+        <v>0.9007089386228415</v>
       </c>
       <c r="I7">
-        <v>0.3340163517226813</v>
+        <v>0.844102878096237</v>
       </c>
       <c r="J7">
-        <v>0.0254266831294343</v>
+        <v>0.06274093095036104</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3108761906683384</v>
+        <v>0.4342664649530832</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8455998528146864</v>
+        <v>1.328629799659794</v>
       </c>
       <c r="O7">
-        <v>1.641143898492629</v>
+        <v>3.472836996406897</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.379300191195853</v>
+        <v>1.276634642789759</v>
       </c>
       <c r="C8">
-        <v>0.3185572219181694</v>
+        <v>0.1384805407912211</v>
       </c>
       <c r="D8">
-        <v>0.2640078635274818</v>
+        <v>0.4982512705594075</v>
       </c>
       <c r="E8">
-        <v>0.06150644047888854</v>
+        <v>0.1612840318030031</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4774962750146443</v>
+        <v>0.8237333278339918</v>
       </c>
       <c r="H8">
-        <v>0.3670305432174246</v>
+        <v>0.8945582087124819</v>
       </c>
       <c r="I8">
-        <v>0.3310965283995628</v>
+        <v>0.834248052127883</v>
       </c>
       <c r="J8">
-        <v>0.02496420484410145</v>
+        <v>0.06242407340709732</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3586379356678009</v>
+        <v>0.4446298075267521</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8276729241473717</v>
+        <v>1.318258491028409</v>
       </c>
       <c r="O8">
-        <v>1.729072027559056</v>
+        <v>3.458157404352249</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.1826493621125</v>
+        <v>1.511215527179161</v>
       </c>
       <c r="C9">
-        <v>0.4042162488369172</v>
+        <v>0.1665125085602881</v>
       </c>
       <c r="D9">
-        <v>0.3069663280677872</v>
+        <v>0.5025107771809587</v>
       </c>
       <c r="E9">
-        <v>0.06361259906639738</v>
+        <v>0.1596810544710934</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5523307069762353</v>
+        <v>0.8258250857491163</v>
       </c>
       <c r="H9">
-        <v>0.3874918485732621</v>
+        <v>0.8856138468907773</v>
       </c>
       <c r="I9">
-        <v>0.3318151365969513</v>
+        <v>0.8183715343836155</v>
       </c>
       <c r="J9">
-        <v>0.02414511748259063</v>
+        <v>0.061873470918405</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4546689859976567</v>
+        <v>0.4663108349630818</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8003396450162725</v>
+        <v>1.301674233153889</v>
       </c>
       <c r="O9">
-        <v>1.931497506583099</v>
+        <v>3.444580489449208</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.776692839903546</v>
+        <v>1.684427446304142</v>
       </c>
       <c r="C10">
-        <v>0.4671183427613812</v>
+        <v>0.1868649714924402</v>
       </c>
       <c r="D10">
-        <v>0.3405466077783927</v>
+        <v>0.5066790581976903</v>
       </c>
       <c r="E10">
-        <v>0.06561733678957005</v>
+        <v>0.1587813993752789</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6137539467007116</v>
+        <v>0.8298910260848089</v>
       </c>
       <c r="H10">
-        <v>0.4062453380006446</v>
+        <v>0.8809394794111256</v>
       </c>
       <c r="I10">
-        <v>0.3368113083450552</v>
+        <v>0.8088110560024759</v>
       </c>
       <c r="J10">
-        <v>0.0235969964772087</v>
+        <v>0.06151171290063395</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5270261959993263</v>
+        <v>0.4830600405313987</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7854867485900527</v>
+        <v>1.291768595535061</v>
       </c>
       <c r="O10">
-        <v>2.10161329759174</v>
+        <v>3.443885034669051</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.048169235340254</v>
+        <v>1.763399525318789</v>
       </c>
       <c r="C11">
-        <v>0.4957616987422</v>
+        <v>0.1960698216262244</v>
       </c>
       <c r="D11">
-        <v>0.3563282606067446</v>
+        <v>0.5088000012253815</v>
       </c>
       <c r="E11">
-        <v>0.06663879095859748</v>
+        <v>0.1584322496639672</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6433363938558898</v>
+        <v>0.8322913886966461</v>
       </c>
       <c r="H11">
-        <v>0.4156929002210603</v>
+        <v>0.8792242769614091</v>
       </c>
       <c r="I11">
-        <v>0.3401818759575121</v>
+        <v>0.804918970918493</v>
       </c>
       <c r="J11">
-        <v>0.02335932656120754</v>
+        <v>0.0613563496086007</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5604205097607604</v>
+        <v>0.4908561997362426</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7799743414766169</v>
+        <v>1.28775517128453</v>
       </c>
       <c r="O11">
-        <v>2.184385577991037</v>
+        <v>3.445585525547841</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.151183889192794</v>
+        <v>1.793328067524953</v>
       </c>
       <c r="C12">
-        <v>0.5066153492764158</v>
+        <v>0.1995475986502697</v>
       </c>
       <c r="D12">
-        <v>0.3623829860403021</v>
+        <v>0.5096353761234695</v>
       </c>
       <c r="E12">
-        <v>0.06704223059058378</v>
+        <v>0.1583086581258826</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6547958602537562</v>
+        <v>0.8332796278190386</v>
       </c>
       <c r="H12">
-        <v>0.4194119031084398</v>
+        <v>0.8786338436503058</v>
       </c>
       <c r="I12">
-        <v>0.3416274663816452</v>
+        <v>0.8035108911582469</v>
       </c>
       <c r="J12">
-        <v>0.02327100978359287</v>
+        <v>0.06129883496440591</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.573142430242072</v>
+        <v>0.4938336579255349</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.77807564148479</v>
+        <v>1.2863060912847</v>
       </c>
       <c r="O12">
-        <v>2.2165694410659</v>
+        <v>3.446519547921696</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.128987827572018</v>
+        <v>1.786881404796645</v>
       </c>
       <c r="C13">
-        <v>0.504277460031517</v>
+        <v>0.1987989515825745</v>
       </c>
       <c r="D13">
-        <v>0.3610754019268541</v>
+        <v>0.509454031832675</v>
       </c>
       <c r="E13">
-        <v>0.06695458788359332</v>
+        <v>0.1583348925365868</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6523160634792617</v>
+        <v>0.8330632658942108</v>
       </c>
       <c r="H13">
-        <v>0.4186044993589348</v>
+        <v>0.8787583774058447</v>
       </c>
       <c r="I13">
-        <v>0.3413084169204765</v>
+        <v>0.8038112204845689</v>
       </c>
       <c r="J13">
-        <v>0.02328995541382195</v>
+        <v>0.06131116323313179</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5703990237923904</v>
+        <v>0.4931912906324101</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7784760037488923</v>
+        <v>1.286615033516171</v>
       </c>
       <c r="O13">
-        <v>2.20959963130008</v>
+        <v>3.446305486987228</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.056639853057902</v>
+        <v>1.765861304015516</v>
       </c>
       <c r="C14">
-        <v>0.4966544767392804</v>
+        <v>0.1963560998738672</v>
       </c>
       <c r="D14">
-        <v>0.3568247774043556</v>
+        <v>0.5088680828728656</v>
       </c>
       <c r="E14">
-        <v>0.066671643431512</v>
+        <v>0.1584219089901886</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.644273888388895</v>
+        <v>0.8323711025179819</v>
       </c>
       <c r="H14">
-        <v>0.4159959731277212</v>
+        <v>0.8791745179716628</v>
       </c>
       <c r="I14">
-        <v>0.3402973461124077</v>
+        <v>0.8048018089732878</v>
       </c>
       <c r="J14">
-        <v>0.023352026912554</v>
+        <v>0.06135159145766256</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5614655780462812</v>
+        <v>0.4911006527348576</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7798142934318832</v>
+        <v>1.287634538079161</v>
       </c>
       <c r="O14">
-        <v>2.187016142648957</v>
+        <v>3.445656554079278</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.01235333956771</v>
+        <v>1.752988892158953</v>
       </c>
       <c r="C15">
-        <v>0.491986185125171</v>
+        <v>0.1948587481027459</v>
       </c>
       <c r="D15">
-        <v>0.3542315568398635</v>
+        <v>0.5085133651567588</v>
       </c>
       <c r="E15">
-        <v>0.06650052588961586</v>
+        <v>0.1584763315847724</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6393819809654815</v>
+        <v>0.831957458542476</v>
       </c>
       <c r="H15">
-        <v>0.4144168890620108</v>
+        <v>0.8794371080636267</v>
       </c>
       <c r="I15">
-        <v>0.3397004250825049</v>
+        <v>0.80541713945928</v>
       </c>
       <c r="J15">
-        <v>0.02339026692035162</v>
+        <v>0.06137652640951075</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5560037389116133</v>
+        <v>0.4898233550446633</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7806589145073275</v>
+        <v>1.288268219589241</v>
       </c>
       <c r="O15">
-        <v>2.173294486128185</v>
+        <v>3.445296843162538</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.758979052667144</v>
+        <v>1.679269833323076</v>
       </c>
       <c r="C16">
-        <v>0.4652472537218273</v>
+        <v>0.1862623179670209</v>
       </c>
       <c r="D16">
-        <v>0.3395259067461041</v>
+        <v>0.5065449638331359</v>
       </c>
       <c r="E16">
-        <v>0.06555286059317389</v>
+        <v>0.1588054249810149</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6118554675427674</v>
+        <v>0.8297452457899936</v>
       </c>
       <c r="H16">
-        <v>0.4056471676903612</v>
+        <v>0.8810598416745847</v>
       </c>
       <c r="I16">
-        <v>0.3366140789654679</v>
+        <v>0.8090746135921698</v>
       </c>
       <c r="J16">
-        <v>0.02361276408020974</v>
+        <v>0.06152205098355168</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5248540503821744</v>
+        <v>0.4825540840958951</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7858728588907411</v>
+        <v>1.292040785157404</v>
       </c>
       <c r="O16">
-        <v>2.09631779289154</v>
+        <v>3.443814493227507</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.603883663428633</v>
+        <v>1.634089559943106</v>
       </c>
       <c r="C17">
-        <v>0.4488531530282955</v>
+        <v>0.180974823249187</v>
       </c>
       <c r="D17">
-        <v>0.3306380394229791</v>
+        <v>0.5053949100824582</v>
       </c>
       <c r="E17">
-        <v>0.06500015906491541</v>
+        <v>0.1590226942566915</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.595403772925934</v>
+        <v>0.8285292394883896</v>
       </c>
       <c r="H17">
-        <v>0.4005086084548566</v>
+        <v>0.882160614847848</v>
       </c>
       <c r="I17">
-        <v>0.3350097310429376</v>
+        <v>0.811435445199951</v>
       </c>
       <c r="J17">
-        <v>0.02375225209341281</v>
+        <v>0.06161367879240398</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5058724123911418</v>
+        <v>0.4781397704367265</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7893969083867418</v>
+        <v>1.294481228131993</v>
       </c>
       <c r="O17">
-        <v>2.050519599332205</v>
+        <v>3.443421729462671</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.514791730459763</v>
+        <v>1.608119847544117</v>
       </c>
       <c r="C18">
-        <v>0.4394262310343038</v>
+        <v>0.1779285638251622</v>
       </c>
       <c r="D18">
-        <v>0.3255732122863435</v>
+        <v>0.5047545922065382</v>
       </c>
       <c r="E18">
-        <v>0.06469250870158838</v>
+        <v>0.1591533206040605</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5860942655027799</v>
+        <v>0.827881659081072</v>
       </c>
       <c r="H18">
-        <v>0.3976386968535195</v>
+        <v>0.8828324567765549</v>
       </c>
       <c r="I18">
-        <v>0.3341895575410625</v>
+        <v>0.8128363474873943</v>
       </c>
       <c r="J18">
-        <v>0.02383358030049632</v>
+        <v>0.06166724715259253</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4949992566918695</v>
+        <v>0.4756174336051515</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7915403393492966</v>
+        <v>1.29593128928947</v>
       </c>
       <c r="O18">
-        <v>2.024680454475089</v>
+        <v>3.443385654624052</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.484645471046576</v>
+        <v>1.599329891257867</v>
       </c>
       <c r="C19">
-        <v>0.4362347882329516</v>
+        <v>0.1768962943455676</v>
       </c>
       <c r="D19">
-        <v>0.3238662910720222</v>
+        <v>0.5045414293832096</v>
       </c>
       <c r="E19">
-        <v>0.06459007754460622</v>
+        <v>0.1591985209431925</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5829678908890656</v>
+        <v>0.8276712996952682</v>
       </c>
       <c r="H19">
-        <v>0.39668142230299</v>
+        <v>0.8830665803499897</v>
       </c>
       <c r="I19">
-        <v>0.3339291490391538</v>
+        <v>0.8133180552068531</v>
       </c>
       <c r="J19">
-        <v>0.02386130513719387</v>
+        <v>0.06168553345491912</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4913252331725886</v>
+        <v>0.4747662814200311</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7922857870327533</v>
+        <v>1.296430225521057</v>
       </c>
       <c r="O19">
-        <v>2.016016195786221</v>
+        <v>3.443406042314024</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.620381711860261</v>
+        <v>1.638897353947414</v>
       </c>
       <c r="C20">
-        <v>0.4505980510034817</v>
+        <v>0.1815382083222516</v>
       </c>
       <c r="D20">
-        <v>0.3315792380691533</v>
+        <v>0.5055151457555667</v>
       </c>
       <c r="E20">
-        <v>0.0650579280716812</v>
+        <v>0.1589989800481675</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5971390918101775</v>
+        <v>0.8286533202202264</v>
       </c>
       <c r="H20">
-        <v>0.4010466846128224</v>
+        <v>0.8820394300837222</v>
       </c>
       <c r="I20">
-        <v>0.3351698174095894</v>
+        <v>0.8111796784624445</v>
       </c>
       <c r="J20">
-        <v>0.02373728964184174</v>
+        <v>0.06160383521763801</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5078883744183003</v>
+        <v>0.4786079589784151</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7890096418970387</v>
+        <v>1.294216639331331</v>
       </c>
       <c r="O20">
-        <v>2.055342401914515</v>
+        <v>3.443443892428434</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.077884159930875</v>
+        <v>1.772034793984574</v>
       </c>
       <c r="C21">
-        <v>0.4988933166128788</v>
+        <v>0.197073840583613</v>
       </c>
       <c r="D21">
-        <v>0.3580711085525934</v>
+        <v>0.509039316663376</v>
       </c>
       <c r="E21">
-        <v>0.06675429215249906</v>
+        <v>0.1583961162543801</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6466289117508239</v>
+        <v>0.8325722555978103</v>
       </c>
       <c r="H21">
-        <v>0.4167582424973091</v>
+        <v>0.8790506844909203</v>
       </c>
       <c r="I21">
-        <v>0.3405896348968156</v>
+        <v>0.8045090637978234</v>
       </c>
       <c r="J21">
-        <v>0.02333374927153375</v>
+        <v>0.06133968097796938</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5640874175087447</v>
+        <v>0.4917140409254728</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7794160019387846</v>
+        <v>1.287333166683268</v>
       </c>
       <c r="O21">
-        <v>2.193626125692816</v>
+        <v>3.445839288140405</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.378144249890568</v>
+        <v>1.859184060335963</v>
       </c>
       <c r="C22">
-        <v>0.5304995832314603</v>
+        <v>0.2071811375457742</v>
       </c>
       <c r="D22">
-        <v>0.3758459485452477</v>
+        <v>0.5115303203718469</v>
       </c>
       <c r="E22">
-        <v>0.06796039381501728</v>
+        <v>0.1580523674529637</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6804837040123459</v>
+        <v>0.8355956105078235</v>
       </c>
       <c r="H22">
-        <v>0.4278558924401494</v>
+        <v>0.8774416863115135</v>
       </c>
       <c r="I22">
-        <v>0.3451240309395729</v>
+        <v>0.8005328026380951</v>
       </c>
       <c r="J22">
-        <v>0.02307982873374037</v>
+        <v>0.061174721200981</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6012648236236515</v>
+        <v>0.5004265380034951</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7742510757888255</v>
+        <v>1.283246551724815</v>
       </c>
       <c r="O22">
-        <v>2.2889311515857</v>
+        <v>3.449095673225514</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.217763056649403</v>
+        <v>1.812659029017652</v>
       </c>
       <c r="C23">
-        <v>0.5136258142610757</v>
+        <v>0.2017909685129098</v>
       </c>
       <c r="D23">
-        <v>0.3663149858995212</v>
+        <v>0.5101836789979757</v>
       </c>
       <c r="E23">
-        <v>0.06730744984133352</v>
+        <v>0.1582312405370914</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6622691392483375</v>
+        <v>0.8339396812577036</v>
       </c>
       <c r="H23">
-        <v>0.4218536353187687</v>
+        <v>0.8782689507781072</v>
       </c>
       <c r="I23">
-        <v>0.3426091917635716</v>
+        <v>0.8026199134497887</v>
       </c>
       <c r="J23">
-        <v>0.02321445087754626</v>
+        <v>0.06126206230203479</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5813789593369165</v>
+        <v>0.4957631411651704</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7769031715013597</v>
+        <v>1.285389987660494</v>
       </c>
       <c r="O23">
-        <v>2.237591311436915</v>
+        <v>3.447202945817651</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.612922714714443</v>
+        <v>1.636723734463942</v>
       </c>
       <c r="C24">
-        <v>0.4498091882479969</v>
+        <v>0.1812835218783562</v>
       </c>
       <c r="D24">
-        <v>0.3311535826616563</v>
+        <v>0.5054607222146075</v>
       </c>
       <c r="E24">
-        <v>0.06503177929542225</v>
+        <v>0.1590096834378425</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5963540922855799</v>
+        <v>0.8285970628523245</v>
       </c>
       <c r="H24">
-        <v>0.4008031584806417</v>
+        <v>0.8820940962500998</v>
       </c>
       <c r="I24">
-        <v>0.3350971249229424</v>
+        <v>0.8112951747065686</v>
       </c>
       <c r="J24">
-        <v>0.0237440506323443</v>
+        <v>0.0616082827243325</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.506976835065629</v>
+        <v>0.478396242609108</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7891843601118467</v>
+        <v>1.294336113458783</v>
       </c>
       <c r="O24">
-        <v>2.053160488876216</v>
+        <v>3.443433281555258</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.96477778524536</v>
+        <v>1.447597957743824</v>
       </c>
       <c r="C25">
-        <v>0.3810595846146043</v>
+        <v>0.1589712361452769</v>
       </c>
       <c r="D25">
-        <v>0.2950118527227374</v>
+        <v>0.5011757163596116</v>
       </c>
       <c r="E25">
-        <v>0.06296577792474878</v>
+        <v>0.1600657864848518</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5310318442926985</v>
+        <v>0.8248155299052655</v>
       </c>
       <c r="H25">
-        <v>0.3813378716623674</v>
+        <v>0.8877001558636266</v>
       </c>
       <c r="I25">
-        <v>0.3308770684522564</v>
+        <v>0.8222971802875101</v>
       </c>
       <c r="J25">
-        <v>0.02435728848973984</v>
+        <v>0.06201488653722187</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.428400705371871</v>
+        <v>0.460300934017468</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8068508814196562</v>
+        <v>1.305759853083742</v>
       </c>
       <c r="O25">
-        <v>1.873215475964003</v>
+        <v>3.44662434687308</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_181/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.30894078192739</v>
+        <v>2.489990661627758</v>
       </c>
       <c r="C2">
-        <v>0.142381227458003</v>
+        <v>0.3304077405393286</v>
       </c>
       <c r="D2">
-        <v>0.4987193280759641</v>
+        <v>0.2697327071788607</v>
       </c>
       <c r="E2">
-        <v>0.1610303018711168</v>
+        <v>0.06174802757178988</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8237303887048171</v>
+        <v>0.4871729296645242</v>
       </c>
       <c r="H2">
-        <v>0.8931027468405262</v>
+        <v>0.3694642218350452</v>
       </c>
       <c r="I2">
-        <v>0.8318112243451985</v>
+        <v>0.3307226083316266</v>
       </c>
       <c r="J2">
-        <v>0.06234302277106618</v>
+        <v>0.02484483667049631</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4475299938882245</v>
+        <v>0.3717269055289023</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.315702795095667</v>
+        <v>0.8233288417903282</v>
       </c>
       <c r="O2">
-        <v>3.45520901001251</v>
+        <v>1.754817650511256</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.21536432012158</v>
+        <v>2.169189418883832</v>
       </c>
       <c r="C3">
-        <v>0.1310391777224424</v>
+        <v>0.2960135077540542</v>
       </c>
       <c r="D3">
-        <v>0.4974918089285723</v>
+        <v>0.2533381139109565</v>
       </c>
       <c r="E3">
-        <v>0.1618009621198855</v>
+        <v>0.06109780218373828</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8240526790278437</v>
+        <v>0.4597575262890672</v>
       </c>
       <c r="H3">
-        <v>0.8975604967407804</v>
+        <v>0.3628003978018484</v>
       </c>
       <c r="I3">
-        <v>0.8391401848351521</v>
+        <v>0.3322819078258874</v>
       </c>
       <c r="J3">
-        <v>0.0625834658560569</v>
+        <v>0.02519769224177182</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4392220721310593</v>
+        <v>0.3339364164886263</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.323399950736459</v>
+        <v>0.8365090595351816</v>
       </c>
       <c r="O3">
-        <v>3.46491372699569</v>
+        <v>1.682344467133817</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.158110474741818</v>
+        <v>1.972528043906323</v>
       </c>
       <c r="C4">
-        <v>0.1240271722318056</v>
+        <v>0.2748485040264796</v>
       </c>
       <c r="D4">
-        <v>0.4969543038967146</v>
+        <v>0.2436068156245597</v>
       </c>
       <c r="E4">
-        <v>0.1623320022799071</v>
+        <v>0.06078051621527081</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8247716671149874</v>
+        <v>0.4439599382384927</v>
       </c>
       <c r="H4">
-        <v>0.9006908013210904</v>
+        <v>0.3593447442828364</v>
       </c>
       <c r="I4">
-        <v>0.8440747278029868</v>
+        <v>0.3340051272155513</v>
       </c>
       <c r="J4">
-        <v>0.06274004911365427</v>
+        <v>0.02542540543776983</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4342931431209962</v>
+        <v>0.3110016376805902</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.328600094259578</v>
+        <v>0.845547984959687</v>
       </c>
       <c r="O4">
-        <v>3.472789165687686</v>
+        <v>1.641361151339936</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.134831784498516</v>
+        <v>1.892443819680949</v>
       </c>
       <c r="C5">
-        <v>0.1211578432973681</v>
+        <v>0.266210074038284</v>
       </c>
       <c r="D5">
-        <v>0.4967897377116941</v>
+        <v>0.239721519263469</v>
       </c>
       <c r="E5">
-        <v>0.1625629751952449</v>
+        <v>0.06067121173866319</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8251956460268701</v>
+        <v>0.4377682939540932</v>
       </c>
       <c r="H5">
-        <v>0.9020653813259827</v>
+        <v>0.3580899763755099</v>
       </c>
       <c r="I5">
-        <v>0.8461948428458257</v>
+        <v>0.3348921536090472</v>
       </c>
       <c r="J5">
-        <v>0.06280611444944029</v>
+        <v>0.02552097911709161</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4323280613176337</v>
+        <v>0.301718216138255</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.330838582953469</v>
+        <v>0.8494627661756269</v>
       </c>
       <c r="O5">
-        <v>3.476480485872372</v>
+        <v>1.625500005363847</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.130969612732258</v>
+        <v>1.879148726388365</v>
       </c>
       <c r="C6">
-        <v>0.1206806810724288</v>
+        <v>0.2647748040557758</v>
       </c>
       <c r="D6">
-        <v>0.4967657047159406</v>
+        <v>0.2390811054996647</v>
       </c>
       <c r="E6">
-        <v>0.1626022087095471</v>
+        <v>0.06065425178512918</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8252739571566678</v>
+        <v>0.4367546256334975</v>
       </c>
       <c r="H6">
-        <v>0.9022996081710062</v>
+        <v>0.3578907068406778</v>
       </c>
       <c r="I6">
-        <v>0.8465534841728548</v>
+        <v>0.3350503846372064</v>
       </c>
       <c r="J6">
-        <v>0.0628172209977933</v>
+        <v>0.02553701682527798</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4320043940764009</v>
+        <v>0.3001803591811125</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.331217498469158</v>
+        <v>0.8501265990883837</v>
       </c>
       <c r="O6">
-        <v>3.477122540645951</v>
+        <v>1.622915750718903</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.157796314348502</v>
+        <v>1.971447797259373</v>
       </c>
       <c r="C7">
-        <v>0.1239885233258207</v>
+        <v>0.2747320601001206</v>
       </c>
       <c r="D7">
-        <v>0.4969518638039574</v>
+        <v>0.2435540971848411</v>
       </c>
       <c r="E7">
-        <v>0.1623350582389982</v>
+        <v>0.06077896194382681</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8247768547543615</v>
+        <v>0.4438754580534976</v>
       </c>
       <c r="H7">
-        <v>0.9007089386228415</v>
+        <v>0.3593272091123794</v>
       </c>
       <c r="I7">
-        <v>0.844102878096237</v>
+        <v>0.3340163517226813</v>
       </c>
       <c r="J7">
-        <v>0.06274093095036104</v>
+        <v>0.02542668312946361</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4342664649530832</v>
+        <v>0.3108761906683384</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.328629799659794</v>
+        <v>0.8455998528146935</v>
       </c>
       <c r="O7">
-        <v>3.472836996406897</v>
+        <v>1.641143898492601</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.276634642789759</v>
+        <v>2.37930019119591</v>
       </c>
       <c r="C8">
-        <v>0.1384805407912211</v>
+        <v>0.3185572219181694</v>
       </c>
       <c r="D8">
-        <v>0.4982512705594075</v>
+        <v>0.2640078635274676</v>
       </c>
       <c r="E8">
-        <v>0.1612840318030031</v>
+        <v>0.06150644047890097</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8237333278339918</v>
+        <v>0.4774962750145733</v>
       </c>
       <c r="H8">
-        <v>0.8945582087124819</v>
+        <v>0.3670305432174246</v>
       </c>
       <c r="I8">
-        <v>0.834248052127883</v>
+        <v>0.3310965283995628</v>
       </c>
       <c r="J8">
-        <v>0.06242407340709732</v>
+        <v>0.02496420484414852</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4446298075267521</v>
+        <v>0.3586379356678009</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.318258491028409</v>
+        <v>0.8276729241473575</v>
       </c>
       <c r="O8">
-        <v>3.458157404352249</v>
+        <v>1.729072027559056</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.511215527179161</v>
+        <v>3.1826493621125</v>
       </c>
       <c r="C9">
-        <v>0.1665125085602881</v>
+        <v>0.4042162488371162</v>
       </c>
       <c r="D9">
-        <v>0.5025107771809587</v>
+        <v>0.3069663280677872</v>
       </c>
       <c r="E9">
-        <v>0.1596810544710934</v>
+        <v>0.06361259906638494</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.8258250857491163</v>
+        <v>0.5523307069761927</v>
       </c>
       <c r="H9">
-        <v>0.8856138468907773</v>
+        <v>0.3874918485732763</v>
       </c>
       <c r="I9">
-        <v>0.8183715343836155</v>
+        <v>0.3318151365969548</v>
       </c>
       <c r="J9">
-        <v>0.061873470918405</v>
+        <v>0.02414511748265635</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4663108349630818</v>
+        <v>0.4546689859976283</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.301674233153889</v>
+        <v>0.8003396450162512</v>
       </c>
       <c r="O9">
-        <v>3.444580489449208</v>
+        <v>1.931497506583042</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.684427446304142</v>
+        <v>3.77669283990366</v>
       </c>
       <c r="C10">
-        <v>0.1868649714924402</v>
+        <v>0.4671183427614949</v>
       </c>
       <c r="D10">
-        <v>0.5066790581976903</v>
+        <v>0.3405466077785206</v>
       </c>
       <c r="E10">
-        <v>0.1587813993752789</v>
+        <v>0.06561733678955228</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.8298910260848089</v>
+        <v>0.6137539467007116</v>
       </c>
       <c r="H10">
-        <v>0.8809394794111256</v>
+        <v>0.4062453380006446</v>
       </c>
       <c r="I10">
-        <v>0.8088110560024759</v>
+        <v>0.3368113083450623</v>
       </c>
       <c r="J10">
-        <v>0.06151171290063395</v>
+        <v>0.02359699647719626</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4830600405313987</v>
+        <v>0.5270261959993547</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.291768595535061</v>
+        <v>0.7854867485900883</v>
       </c>
       <c r="O10">
-        <v>3.443885034669051</v>
+        <v>2.101613297591797</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.763399525318789</v>
+        <v>4.04816923534014</v>
       </c>
       <c r="C11">
-        <v>0.1960698216262244</v>
+        <v>0.4957616987417452</v>
       </c>
       <c r="D11">
-        <v>0.5088000012253815</v>
+        <v>0.3563282606068299</v>
       </c>
       <c r="E11">
-        <v>0.1584322496639672</v>
+        <v>0.06663879095857617</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8322913886966461</v>
+        <v>0.6433363938558472</v>
       </c>
       <c r="H11">
-        <v>0.8792242769614091</v>
+        <v>0.4156929002211598</v>
       </c>
       <c r="I11">
-        <v>0.804918970918493</v>
+        <v>0.3401818759575264</v>
       </c>
       <c r="J11">
-        <v>0.0613563496086007</v>
+        <v>0.02335932656116224</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4908561997362426</v>
+        <v>0.5604205097606467</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.28775517128453</v>
+        <v>0.7799743414765601</v>
       </c>
       <c r="O11">
-        <v>3.445585525547841</v>
+        <v>2.184385577991037</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.793328067524953</v>
+        <v>4.151183889192794</v>
       </c>
       <c r="C12">
-        <v>0.1995475986502697</v>
+        <v>0.5066153492762737</v>
       </c>
       <c r="D12">
-        <v>0.5096353761234695</v>
+        <v>0.3623829860402878</v>
       </c>
       <c r="E12">
-        <v>0.1583086581258826</v>
+        <v>0.06704223059056957</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8332796278190386</v>
+        <v>0.6547958602536426</v>
       </c>
       <c r="H12">
-        <v>0.8786338436503058</v>
+        <v>0.4194119031083261</v>
       </c>
       <c r="I12">
-        <v>0.8035108911582469</v>
+        <v>0.3416274663816452</v>
       </c>
       <c r="J12">
-        <v>0.06129883496440591</v>
+        <v>0.02327100978353869</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4938336579255349</v>
+        <v>0.5731424302421289</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.2863060912847</v>
+        <v>0.77807564148479</v>
       </c>
       <c r="O12">
-        <v>3.446519547921696</v>
+        <v>2.216569441065928</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.786881404796645</v>
+        <v>4.128987827572075</v>
       </c>
       <c r="C13">
-        <v>0.1987989515825745</v>
+        <v>0.5042774600314033</v>
       </c>
       <c r="D13">
-        <v>0.509454031832675</v>
+        <v>0.3610754019268967</v>
       </c>
       <c r="E13">
-        <v>0.1583348925365868</v>
+        <v>0.06695458788359687</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8330632658942108</v>
+        <v>0.6523160634792902</v>
       </c>
       <c r="H13">
-        <v>0.8787583774058447</v>
+        <v>0.4186044993588212</v>
       </c>
       <c r="I13">
-        <v>0.8038112204845689</v>
+        <v>0.3413084169204765</v>
       </c>
       <c r="J13">
-        <v>0.06131116323313179</v>
+        <v>0.02328995541383883</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4931912906324101</v>
+        <v>0.5703990237923904</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.286615033516171</v>
+        <v>0.7784760037488638</v>
       </c>
       <c r="O13">
-        <v>3.446305486987228</v>
+        <v>2.209599631300108</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.765861304015516</v>
+        <v>4.056639853058073</v>
       </c>
       <c r="C14">
-        <v>0.1963560998738672</v>
+        <v>0.4966544767394794</v>
       </c>
       <c r="D14">
-        <v>0.5088680828728656</v>
+        <v>0.3568247774045972</v>
       </c>
       <c r="E14">
-        <v>0.1584219089901886</v>
+        <v>0.06667164343151022</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8323711025179819</v>
+        <v>0.6442738883888524</v>
       </c>
       <c r="H14">
-        <v>0.8791745179716628</v>
+        <v>0.4159959731277212</v>
       </c>
       <c r="I14">
-        <v>0.8048018089732878</v>
+        <v>0.3402973461124077</v>
       </c>
       <c r="J14">
-        <v>0.06135159145766256</v>
+        <v>0.0233520269125469</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4911006527348576</v>
+        <v>0.5614655780462527</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.287634538079161</v>
+        <v>0.7798142934318122</v>
       </c>
       <c r="O14">
-        <v>3.445656554079278</v>
+        <v>2.187016142648844</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.752988892158953</v>
+        <v>4.012353339568108</v>
       </c>
       <c r="C15">
-        <v>0.1948587481027459</v>
+        <v>0.4919861851251994</v>
       </c>
       <c r="D15">
-        <v>0.5085133651567588</v>
+        <v>0.3542315568397214</v>
       </c>
       <c r="E15">
-        <v>0.1584763315847724</v>
+        <v>0.06650052588961408</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.831957458542476</v>
+        <v>0.6393819809654246</v>
       </c>
       <c r="H15">
-        <v>0.8794371080636267</v>
+        <v>0.4144168890619966</v>
       </c>
       <c r="I15">
-        <v>0.80541713945928</v>
+        <v>0.3397004250824978</v>
       </c>
       <c r="J15">
-        <v>0.06137652640951075</v>
+        <v>0.02339026692030188</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4898233550446633</v>
+        <v>0.556003738911599</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.288268219589241</v>
+        <v>0.7806589145073275</v>
       </c>
       <c r="O15">
-        <v>3.445296843162538</v>
+        <v>2.173294486128214</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.679269833323076</v>
+        <v>3.758979052667257</v>
       </c>
       <c r="C16">
-        <v>0.1862623179670209</v>
+        <v>0.465247253721941</v>
       </c>
       <c r="D16">
-        <v>0.5065449638331359</v>
+        <v>0.3395259067459904</v>
       </c>
       <c r="E16">
-        <v>0.1588054249810149</v>
+        <v>0.06555286059317211</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8297452457899936</v>
+        <v>0.6118554675428527</v>
       </c>
       <c r="H16">
-        <v>0.8810598416745847</v>
+        <v>0.405647167690347</v>
       </c>
       <c r="I16">
-        <v>0.8090746135921698</v>
+        <v>0.336614078965475</v>
       </c>
       <c r="J16">
-        <v>0.06152205098355168</v>
+        <v>0.02361276408020085</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4825540840958951</v>
+        <v>0.5248540503822738</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.292040785157404</v>
+        <v>0.7858728588906629</v>
       </c>
       <c r="O16">
-        <v>3.443814493227507</v>
+        <v>2.096317792891568</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.634089559943106</v>
+        <v>3.603883663428746</v>
       </c>
       <c r="C17">
-        <v>0.180974823249187</v>
+        <v>0.4488531530284945</v>
       </c>
       <c r="D17">
-        <v>0.5053949100824582</v>
+        <v>0.3306380394230928</v>
       </c>
       <c r="E17">
-        <v>0.1590226942566915</v>
+        <v>0.06500015906491008</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8285292394883896</v>
+        <v>0.5954037729259767</v>
       </c>
       <c r="H17">
-        <v>0.882160614847848</v>
+        <v>0.4005086084549419</v>
       </c>
       <c r="I17">
-        <v>0.811435445199951</v>
+        <v>0.3350097310429234</v>
       </c>
       <c r="J17">
-        <v>0.06161367879240398</v>
+        <v>0.02375225209341369</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4781397704367265</v>
+        <v>0.5058724123911418</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.294481228131993</v>
+        <v>0.7893969083867347</v>
       </c>
       <c r="O17">
-        <v>3.443421729462671</v>
+        <v>2.050519599332176</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.608119847544117</v>
+        <v>3.514791730459763</v>
       </c>
       <c r="C18">
-        <v>0.1779285638251622</v>
+        <v>0.4394262310345596</v>
       </c>
       <c r="D18">
-        <v>0.5047545922065382</v>
+        <v>0.3255732122864146</v>
       </c>
       <c r="E18">
-        <v>0.1591533206040605</v>
+        <v>0.06469250870160259</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.827881659081072</v>
+        <v>0.5860942655027799</v>
       </c>
       <c r="H18">
-        <v>0.8828324567765549</v>
+        <v>0.3976386968535337</v>
       </c>
       <c r="I18">
-        <v>0.8128363474873943</v>
+        <v>0.334189557541027</v>
       </c>
       <c r="J18">
-        <v>0.06166724715259253</v>
+        <v>0.02383358030042437</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4756174336051515</v>
+        <v>0.49499925669177</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.29593128928947</v>
+        <v>0.7915403393492255</v>
       </c>
       <c r="O18">
-        <v>3.443385654624052</v>
+        <v>2.024680454475089</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.599329891257867</v>
+        <v>3.48464547104652</v>
       </c>
       <c r="C19">
-        <v>0.1768962943455676</v>
+        <v>0.4362347882332358</v>
       </c>
       <c r="D19">
-        <v>0.5045414293832096</v>
+        <v>0.3238662910720365</v>
       </c>
       <c r="E19">
-        <v>0.1591985209431925</v>
+        <v>0.06459007754460266</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.8276712996952682</v>
+        <v>0.5829678908890372</v>
       </c>
       <c r="H19">
-        <v>0.8830665803499897</v>
+        <v>0.3966814223030042</v>
       </c>
       <c r="I19">
-        <v>0.8133180552068531</v>
+        <v>0.3339291490391574</v>
       </c>
       <c r="J19">
-        <v>0.06168553345491912</v>
+        <v>0.02386130513722051</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4747662814200311</v>
+        <v>0.4913252331726596</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.296430225521057</v>
+        <v>0.7922857870327533</v>
       </c>
       <c r="O19">
-        <v>3.443406042314024</v>
+        <v>2.016016195786221</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.638897353947414</v>
+        <v>3.620381711860205</v>
       </c>
       <c r="C20">
-        <v>0.1815382083222516</v>
+        <v>0.4505980510032828</v>
       </c>
       <c r="D20">
-        <v>0.5055151457555667</v>
+        <v>0.3315792380692244</v>
       </c>
       <c r="E20">
-        <v>0.1589989800481675</v>
+        <v>0.06505792807170252</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.8286533202202264</v>
+        <v>0.5971390918101491</v>
       </c>
       <c r="H20">
-        <v>0.8820394300837222</v>
+        <v>0.4010466846128224</v>
       </c>
       <c r="I20">
-        <v>0.8111796784624445</v>
+        <v>0.3351698174095752</v>
       </c>
       <c r="J20">
-        <v>0.06160383521763801</v>
+        <v>0.02373728964194832</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4786079589784151</v>
+        <v>0.5078883744181866</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.294216639331331</v>
+        <v>0.7890096418970458</v>
       </c>
       <c r="O20">
-        <v>3.443443892428434</v>
+        <v>2.055342401914544</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.772034793984574</v>
+        <v>4.077884159930761</v>
       </c>
       <c r="C21">
-        <v>0.197073840583613</v>
+        <v>0.4988933166124241</v>
       </c>
       <c r="D21">
-        <v>0.509039316663376</v>
+        <v>0.3580711085523944</v>
       </c>
       <c r="E21">
-        <v>0.1583961162543801</v>
+        <v>0.06675429215250084</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.8325722555978103</v>
+        <v>0.6466289117507955</v>
       </c>
       <c r="H21">
-        <v>0.8790506844909203</v>
+        <v>0.4167582424974228</v>
       </c>
       <c r="I21">
-        <v>0.8045090637978234</v>
+        <v>0.3405896348968369</v>
       </c>
       <c r="J21">
-        <v>0.06133968097796938</v>
+        <v>0.02333374927148402</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4917140409254728</v>
+        <v>0.5640874175087447</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.287333166683268</v>
+        <v>0.7794160019387846</v>
       </c>
       <c r="O21">
-        <v>3.445839288140405</v>
+        <v>2.193626125692788</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.859184060335963</v>
+        <v>4.378144249890454</v>
       </c>
       <c r="C22">
-        <v>0.2071811375457742</v>
+        <v>0.5304995832313466</v>
       </c>
       <c r="D22">
-        <v>0.5115303203718469</v>
+        <v>0.3758459485452619</v>
       </c>
       <c r="E22">
-        <v>0.1580523674529637</v>
+        <v>0.06796039381503149</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.8355956105078235</v>
+        <v>0.6804837040123459</v>
       </c>
       <c r="H22">
-        <v>0.8774416863115135</v>
+        <v>0.4278558924402631</v>
       </c>
       <c r="I22">
-        <v>0.8005328026380951</v>
+        <v>0.3451240309395729</v>
       </c>
       <c r="J22">
-        <v>0.061174721200981</v>
+        <v>0.02307982873372172</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5004265380034951</v>
+        <v>0.6012648236237652</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.283246551724815</v>
+        <v>0.7742510757888681</v>
       </c>
       <c r="O22">
-        <v>3.449095673225514</v>
+        <v>2.2889311515857</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.812659029017652</v>
+        <v>4.217763056649346</v>
       </c>
       <c r="C23">
-        <v>0.2017909685129098</v>
+        <v>0.5136258142613315</v>
       </c>
       <c r="D23">
-        <v>0.5101836789979757</v>
+        <v>0.3663149858995354</v>
       </c>
       <c r="E23">
-        <v>0.1582312405370914</v>
+        <v>0.06730744984132286</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.8339396812577036</v>
+        <v>0.6622691392483091</v>
       </c>
       <c r="H23">
-        <v>0.8782689507781072</v>
+        <v>0.4218536353187829</v>
       </c>
       <c r="I23">
-        <v>0.8026199134497887</v>
+        <v>0.3426091917635432</v>
       </c>
       <c r="J23">
-        <v>0.06126206230203479</v>
+        <v>0.02321445087759599</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4957631411651704</v>
+        <v>0.581378959336817</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.285389987660494</v>
+        <v>0.7769031715014023</v>
       </c>
       <c r="O23">
-        <v>3.447202945817651</v>
+        <v>2.237591311436915</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.636723734463942</v>
+        <v>3.6129227147145</v>
       </c>
       <c r="C24">
-        <v>0.1812835218783562</v>
+        <v>0.4498091882479685</v>
       </c>
       <c r="D24">
-        <v>0.5054607222146075</v>
+        <v>0.3311535826618695</v>
       </c>
       <c r="E24">
-        <v>0.1590096834378425</v>
+        <v>0.06503177929542225</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.8285970628523245</v>
+        <v>0.5963540922855799</v>
       </c>
       <c r="H24">
-        <v>0.8820940962500998</v>
+        <v>0.4008031584806417</v>
       </c>
       <c r="I24">
-        <v>0.8112951747065686</v>
+        <v>0.3350971249229175</v>
       </c>
       <c r="J24">
-        <v>0.0616082827243325</v>
+        <v>0.02374405063231855</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.478396242609108</v>
+        <v>0.5069768350656432</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.294336113458783</v>
+        <v>0.7891843601117827</v>
       </c>
       <c r="O24">
-        <v>3.443433281555258</v>
+        <v>2.053160488876131</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.447597957743824</v>
+        <v>2.96477778524536</v>
       </c>
       <c r="C25">
-        <v>0.1589712361452769</v>
+        <v>0.3810595846145759</v>
       </c>
       <c r="D25">
-        <v>0.5011757163596116</v>
+        <v>0.2950118527226806</v>
       </c>
       <c r="E25">
-        <v>0.1600657864848518</v>
+        <v>0.06296577792474878</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8248155299052655</v>
+        <v>0.5310318442926842</v>
       </c>
       <c r="H25">
-        <v>0.8877001558636266</v>
+        <v>0.3813378716623532</v>
       </c>
       <c r="I25">
-        <v>0.8222971802875101</v>
+        <v>0.3308770684522528</v>
       </c>
       <c r="J25">
-        <v>0.06201488653722187</v>
+        <v>0.02435728848966257</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.460300934017468</v>
+        <v>0.4284007053718852</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.305759853083742</v>
+        <v>0.8068508814196491</v>
       </c>
       <c r="O25">
-        <v>3.44662434687308</v>
+        <v>1.873215475963946</v>
       </c>
     </row>
   </sheetData>
